--- a/biology/Médecine/1475_en_santé_et_médecine/1475_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1475_en_santé_et_médecine/1475_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1475_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1475_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1475 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1475_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1475_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'Università de Malte ordonne à la garnison du château de la mer de Birgu d'interdire l'entrée du port aux navires en provenance de Drépane, en Sicile, où sévit une épidémie qui prélude à celles qui vont faire plus de quarante mille morts dans le Nord de l'Italie entre 1477 et 1479[1].
-Venise établit un Conseil de santé composé de trois magistrats chargés de la prévention des épidémies[2].
-On commence à distinguer le sexe dans les tables de natalité et mortalité de Paris[3].
-Le premier café connu, le Kiva Han, s'ouvre à Constantinople[4].
-1475-1481 : construction d'un bâtiment destiné à recevoir la faculté de médecine de Paris[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'Università de Malte ordonne à la garnison du château de la mer de Birgu d'interdire l'entrée du port aux navires en provenance de Drépane, en Sicile, où sévit une épidémie qui prélude à celles qui vont faire plus de quarante mille morts dans le Nord de l'Italie entre 1477 et 1479.
+Venise établit un Conseil de santé composé de trois magistrats chargés de la prévention des épidémies.
+On commence à distinguer le sexe dans les tables de natalité et mortalité de Paris.
+Le premier café connu, le Kiva Han, s'ouvre à Constantinople.
+1475-1481 : construction d'un bâtiment destiné à recevoir la faculté de médecine de Paris.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1475_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1475_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Konrad von Megenberg fait paraître son Livre de la nature (Das Buch der Natur), qui comprend des planches gravées sur bois, premières illustrations botaniques imprimées connues[6].
-Première édition, à Plaisance, de la Summa curationis et conservationis de Guillaume de Salicet (1210-1277)[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Konrad von Megenberg fait paraître son Livre de la nature (Das Buch der Natur), qui comprend des planches gravées sur bois, premières illustrations botaniques imprimées connues.
+Première édition, à Plaisance, de la Summa curationis et conservationis de Guillaume de Salicet (1210-1277).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1475_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1475_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parmi ceux qui accompagnent le roi d'Angleterre Édouard IV lors de son expédition en Normandie et en France, il faut compter le médecin Jacobus Fryle († 1488[8]), et les chirurgiens Alexander Ledell, William Hobbes († 1488), William Coke, John Denyse (fl. 1475-1487[9]), John Smith, John Stanley, Richard Brightmore, Richard Clambre, Richard Elstie, Richard Felde, Richard Smythys, Simon Coll et Thomas Colard[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parmi ceux qui accompagnent le roi d'Angleterre Édouard IV lors de son expédition en Normandie et en France, il faut compter le médecin Jacobus Fryle († 1488), et les chirurgiens Alexander Ledell, William Hobbes († 1488), William Coke, John Denyse (fl. 1475-1487), John Smith, John Stanley, Richard Brightmore, Richard Clambre, Richard Elstie, Richard Felde, Richard Smythys, Simon Coll et Thomas Colard.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1475_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1475_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1475 : Henricus  Urbanus (mort en 1538), médecin et poète hessois, disciple de Nicolas Léonicène en Italie, professeur à Erfurt et Marbourg en Allemagne, père du naturaliste Valerius Cordus (1515-1544[11]).
-Vers 1475 : François Rasse l'ancien (mort en 1561), chirurgien d'origine belge, père de François Rasse des Neux (v. 1525-1587), installé à Paris au service des rois Henri II, François II et Charles IX[12],[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1475 : Henricus  Urbanus (mort en 1538), médecin et poète hessois, disciple de Nicolas Léonicène en Italie, professeur à Erfurt et Marbourg en Allemagne, père du naturaliste Valerius Cordus (1515-1544).
+Vers 1475 : François Rasse l'ancien (mort en 1561), chirurgien d'origine belge, père de François Rasse des Neux (v. 1525-1587), installé à Paris au service des rois Henri II, François II et Charles IX,.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1475_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1475_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Mathieu Palmieri (né à une date inconnue), notable florentin, qui n'a été inscrit au Métier des médecins et apothicaires de sa ville que parce qu'elle exigeait de tous ceux qui voulaient y exercer une charge qu'ils appartiennent à une corporation d'arts et métiers[14],[15].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mathieu Palmieri (né à une date inconnue), notable florentin, qui n'a été inscrit au Métier des médecins et apothicaires de sa ville que parce qu'elle exigeait de tous ceux qui voulaient y exercer une charge qu'ils appartiennent à une corporation d'arts et métiers,.</t>
         </is>
       </c>
     </row>
